--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,18 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,166 +61,175 @@
     <t>low</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -706,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -756,37 +756,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.84</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="K5">
-        <v>0.95</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -806,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7792207792207793</v>
+        <v>0.6643835616438356</v>
       </c>
       <c r="C6">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="D6">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -856,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5833333333333334</v>
+        <v>0.2887596899224806</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>367</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9375</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5238095238095238</v>
+        <v>0.28</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4444444444444444</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8888888888888888</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.407725321888412</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C10">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8431372549019608</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3928571428571428</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,287 +1106,167 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3875</v>
+        <v>0.06720430107526881</v>
       </c>
       <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>0.04</v>
+      </c>
+      <c r="F12">
+        <v>0.96</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>347</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L12">
+        <v>19</v>
+      </c>
+      <c r="M12">
+        <v>19</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0.7890625</v>
+      </c>
+      <c r="L13">
+        <v>101</v>
+      </c>
+      <c r="M13">
+        <v>101</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>0.775</v>
+      </c>
+      <c r="L14">
+        <v>93</v>
+      </c>
+      <c r="M14">
+        <v>93</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D12">
-        <v>31</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>49</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L12">
-        <v>41</v>
-      </c>
-      <c r="M12">
-        <v>41</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.3793103448275862</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>18</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13">
-        <v>0.8035714285714286</v>
-      </c>
-      <c r="L13">
-        <v>45</v>
-      </c>
-      <c r="M13">
-        <v>45</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="C14">
+      <c r="K15">
+        <v>0.7605633802816901</v>
+      </c>
+      <c r="L15">
+        <v>108</v>
+      </c>
+      <c r="M15">
+        <v>108</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>0.75</v>
+      </c>
+      <c r="L16">
         <v>27</v>
       </c>
-      <c r="D14">
+      <c r="M16">
         <v>27</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>59</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L14">
-        <v>23</v>
-      </c>
-      <c r="M14">
-        <v>23</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>27</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="L15">
-        <v>19</v>
-      </c>
-      <c r="M15">
-        <v>19</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>0.75</v>
+      </c>
+      <c r="L17">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>0.2391304347826087</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>35</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L16">
-        <v>42</v>
-      </c>
-      <c r="M16">
-        <v>42</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.1636363636363636</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>92</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17">
-        <v>0.72</v>
-      </c>
-      <c r="L17">
-        <v>18</v>
-      </c>
       <c r="M17">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1401,454 +1281,382 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L18">
+        <v>38</v>
+      </c>
+      <c r="M18">
+        <v>38</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>0.7358490566037735</v>
+      </c>
+      <c r="L20">
+        <v>78</v>
+      </c>
+      <c r="M20">
+        <v>78</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L21">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22">
+        <v>0.7</v>
+      </c>
+      <c r="L22">
+        <v>112</v>
+      </c>
+      <c r="M22">
+        <v>112</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L23">
+        <v>43</v>
+      </c>
+      <c r="M23">
+        <v>43</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>0.648936170212766</v>
+      </c>
+      <c r="L24">
+        <v>61</v>
+      </c>
+      <c r="M24">
+        <v>61</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>0.62</v>
+      </c>
+      <c r="L26">
+        <v>31</v>
+      </c>
+      <c r="M26">
+        <v>31</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>0.5926892950391645</v>
+      </c>
+      <c r="L27">
+        <v>227</v>
+      </c>
+      <c r="M27">
+        <v>227</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28">
+        <v>0.5813953488372093</v>
+      </c>
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>25</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29">
+        <v>0.575</v>
+      </c>
+      <c r="L29">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>0.1344086021505376</v>
-      </c>
-      <c r="C18">
+      <c r="M29">
+        <v>23</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L30">
         <v>25</v>
       </c>
-      <c r="D18">
+      <c r="M30">
         <v>25</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>161</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L18">
-        <v>28</v>
-      </c>
-      <c r="M18">
-        <v>28</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.007832898172323759</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>44</v>
-      </c>
-      <c r="E19">
-        <v>0.73</v>
-      </c>
-      <c r="F19">
-        <v>0.27</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1520</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L19">
-        <v>12</v>
-      </c>
-      <c r="M19">
-        <v>12</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.006365372374283896</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>36</v>
-      </c>
-      <c r="E20">
-        <v>0.72</v>
-      </c>
-      <c r="F20">
-        <v>0.28</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1561</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L20">
-        <v>12</v>
-      </c>
-      <c r="M20">
-        <v>12</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>0.68</v>
-      </c>
-      <c r="L21">
-        <v>17</v>
-      </c>
-      <c r="M21">
-        <v>17</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22">
-        <v>0.6575342465753424</v>
-      </c>
-      <c r="L22">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>0.5205479452054794</v>
+      </c>
+      <c r="L31">
+        <v>38</v>
+      </c>
+      <c r="M31">
+        <v>38</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M22">
-        <v>48</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L23">
-        <v>14</v>
-      </c>
-      <c r="M23">
-        <v>14</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L24">
-        <v>21</v>
-      </c>
-      <c r="M24">
-        <v>21</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25">
-        <v>0.625</v>
-      </c>
-      <c r="L25">
-        <v>15</v>
-      </c>
-      <c r="M25">
-        <v>15</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26">
-        <v>0.6150234741784038</v>
-      </c>
-      <c r="L26">
-        <v>131</v>
-      </c>
-      <c r="M26">
-        <v>131</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="L27">
-        <v>17</v>
-      </c>
-      <c r="M27">
-        <v>17</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28">
-        <v>0.6</v>
-      </c>
-      <c r="L28">
-        <v>15</v>
-      </c>
-      <c r="M28">
-        <v>15</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29">
-        <v>0.5813953488372093</v>
-      </c>
-      <c r="L29">
-        <v>75</v>
-      </c>
-      <c r="M29">
-        <v>75</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L30">
-        <v>11</v>
-      </c>
-      <c r="M30">
-        <v>11</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="L31">
-        <v>17</v>
-      </c>
-      <c r="M31">
-        <v>17</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K32">
-        <v>0.5652173913043478</v>
+        <v>0.5152542372881356</v>
       </c>
       <c r="L32">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="M32">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1860,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.55</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L33">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1886,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.5428571428571428</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1912,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.5416666666666666</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L35">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1938,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.4375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1964,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.3947368421052632</v>
+        <v>0.4309623430962343</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1990,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.3513513513513514</v>
+        <v>0.421875</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2016,47 +1824,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.0990990990990991</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N39">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.0861244019138756</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2068,47 +1876,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>191</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.07804878048780488</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>378</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.06060606060606061</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="L42">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="M42">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2120,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>186</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.05714285714285714</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2146,163 +1954,319 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>297</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.05633802816901409</v>
+        <v>0.06748466257668712</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>402</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.03581020590868397</v>
+        <v>0.06168831168831169</v>
       </c>
       <c r="L45">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="N45">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>1077</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.03571428571428571</v>
+        <v>0.05701078582434515</v>
       </c>
       <c r="L46">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="M46">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>270</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.03167420814479638</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="N47">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>428</v>
+        <v>850</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.02061855670103093</v>
+        <v>0.05257270693512305</v>
       </c>
       <c r="L48">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N48">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>1520</v>
+        <v>847</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.01638311279143037</v>
+        <v>0.05074971164936563</v>
       </c>
       <c r="L49">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M49">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N49">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>1561</v>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50">
+        <v>0.04781997187060478</v>
+      </c>
+      <c r="L50">
+        <v>102</v>
+      </c>
+      <c r="M50">
+        <v>112</v>
+      </c>
+      <c r="N50">
+        <v>0.91</v>
+      </c>
+      <c r="O50">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51">
+        <v>0.04320987654320987</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>21</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52">
+        <v>0.02845134173941158</v>
+      </c>
+      <c r="L52">
+        <v>88</v>
+      </c>
+      <c r="M52">
+        <v>102</v>
+      </c>
+      <c r="N52">
+        <v>0.86</v>
+      </c>
+      <c r="O52">
+        <v>0.14</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K53">
+        <v>0.02489626556016597</v>
+      </c>
+      <c r="L53">
+        <v>24</v>
+      </c>
+      <c r="M53">
+        <v>28</v>
+      </c>
+      <c r="N53">
+        <v>0.86</v>
+      </c>
+      <c r="O53">
+        <v>0.14</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K54">
+        <v>0.0225705329153605</v>
+      </c>
+      <c r="L54">
+        <v>72</v>
+      </c>
+      <c r="M54">
+        <v>83</v>
+      </c>
+      <c r="N54">
+        <v>0.87</v>
+      </c>
+      <c r="O54">
+        <v>0.13</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K55">
+        <v>0.01728608470181504</v>
+      </c>
+      <c r="L55">
+        <v>20</v>
+      </c>
+      <c r="M55">
+        <v>24</v>
+      </c>
+      <c r="N55">
+        <v>0.83</v>
+      </c>
+      <c r="O55">
+        <v>0.17</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1137</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,27 +43,24 @@
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -73,66 +70,75 @@
     <t>negative</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -142,73 +148,82 @@
     <t>heroes</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>join</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>local</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>retail</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>san</t>
   </si>
   <si>
     <t>supermarket</t>
@@ -217,9 +232,6 @@
     <t>19</t>
   </si>
   <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -227,9 +239,6 @@
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -587,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>19</v>
       </c>
-      <c r="K3">
-        <v>0.9615384615384616</v>
-      </c>
-      <c r="L3">
-        <v>25</v>
-      </c>
       <c r="M3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -698,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -706,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -748,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -756,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6944444444444444</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -774,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -806,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6643835616438356</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>0.9130434782608695</v>
@@ -856,37 +865,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2887596899224806</v>
+        <v>0.2925531914893617</v>
       </c>
       <c r="C7">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>367</v>
+        <v>133</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8636363636363636</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -906,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.28</v>
+        <v>0.2771317829457364</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>373</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8482142857142857</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2348993288590604</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8414634146341463</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2275132275132275</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,78 +1065,54 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1666666666666667</v>
+        <v>0.0510752688172043</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>210</v>
+        <v>353</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L11">
-        <v>46</v>
-      </c>
-      <c r="M11">
-        <v>46</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.06720430107526881</v>
-      </c>
-      <c r="C12">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>0.04</v>
-      </c>
-      <c r="F12">
-        <v>0.96</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>347</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K12">
         <v>0.7916666666666666</v>
@@ -1153,16 +1138,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1200,21 +1185,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7605633802816901</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L15">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1226,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1252,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1283,16 +1268,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7450980392156863</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1304,15 +1289,15 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.7407407407407407</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
         <v>20</v>
@@ -1330,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.7358490566037735</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M20">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1356,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.7222222222222222</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1382,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L22">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1408,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6825396825396826</v>
+        <v>0.7</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1434,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.648936170212766</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="M24">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1460,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.6382978723404256</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1486,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.62</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1512,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5926892950391645</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L27">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="M27">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1538,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5813953488372093</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1564,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.575</v>
+        <v>0.5691906005221932</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1590,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.5208333333333334</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1616,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.5205479452054794</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1642,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.5152542372881356</v>
+        <v>0.5220338983050847</v>
       </c>
       <c r="L32">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M32">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1668,21 +1653,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.5076923076923077</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1694,21 +1679,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.4852941176470588</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L34">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1720,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>175</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.4831460674157304</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1746,21 +1731,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>46</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.4444444444444444</v>
+        <v>0.475</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1772,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.4309623430962343</v>
+        <v>0.453125</v>
       </c>
       <c r="L37">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1798,21 +1783,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.421875</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1824,21 +1809,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.4102564102564102</v>
+        <v>0.4100418410041841</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1850,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.3571428571428572</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1876,47 +1861,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.1172839506172839</v>
+        <v>0.3098591549295774</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>143</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.1004784688995215</v>
+        <v>0.3</v>
       </c>
       <c r="L42">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1928,21 +1913,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>376</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.07211538461538461</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1954,99 +1939,99 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>386</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.06748466257668712</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>304</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.06168831168831169</v>
+        <v>0.1151079136690648</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>289</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.05701078582434515</v>
+        <v>0.1069767441860465</v>
       </c>
       <c r="L46">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>612</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.05660377358490566</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L47">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M47">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2058,56 +2043,56 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>850</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>0.05257270693512305</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="L48">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>847</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K49">
-        <v>0.05074971164936563</v>
+        <v>0.07838745800671892</v>
       </c>
       <c r="L49">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="M49">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
         <v>823</v>
@@ -2115,42 +2100,42 @@
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K50">
-        <v>0.04781997187060478</v>
+        <v>0.06727828746177369</v>
       </c>
       <c r="L50">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="N50">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>2031</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K51">
-        <v>0.04320987654320987</v>
+        <v>0.06437291897891231</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2162,111 +2147,215 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>465</v>
+        <v>843</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K52">
-        <v>0.02845134173941158</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="L52">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="M52">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="N52">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="O52">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>3005</v>
+        <v>608</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K53">
-        <v>0.02489626556016597</v>
+        <v>0.06168831168831169</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N53">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>940</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K54">
-        <v>0.0225705329153605</v>
+        <v>0.05360824742268041</v>
       </c>
       <c r="L54">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="M54">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="N54">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="O54">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>3118</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K55">
+        <v>0.04959630911188005</v>
+      </c>
+      <c r="L55">
+        <v>43</v>
+      </c>
+      <c r="M55">
+        <v>43</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K55">
-        <v>0.01728608470181504</v>
-      </c>
-      <c r="L55">
-        <v>20</v>
-      </c>
-      <c r="M55">
-        <v>24</v>
-      </c>
-      <c r="N55">
+      <c r="K56">
+        <v>0.04460093896713615</v>
+      </c>
+      <c r="L56">
+        <v>95</v>
+      </c>
+      <c r="M56">
+        <v>108</v>
+      </c>
+      <c r="N56">
+        <v>0.88</v>
+      </c>
+      <c r="O56">
+        <v>0.12</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K57">
+        <v>0.03299902944031058</v>
+      </c>
+      <c r="L57">
+        <v>102</v>
+      </c>
+      <c r="M57">
+        <v>118</v>
+      </c>
+      <c r="N57">
+        <v>0.86</v>
+      </c>
+      <c r="O57">
+        <v>0.14</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K58">
+        <v>0.02797927461139896</v>
+      </c>
+      <c r="L58">
+        <v>27</v>
+      </c>
+      <c r="M58">
+        <v>30</v>
+      </c>
+      <c r="N58">
+        <v>0.9</v>
+      </c>
+      <c r="O58">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K59">
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="L59">
+        <v>55</v>
+      </c>
+      <c r="M59">
+        <v>66</v>
+      </c>
+      <c r="N59">
         <v>0.83</v>
       </c>
-      <c r="O55">
+      <c r="O59">
         <v>0.17</v>
       </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>1137</v>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3135</v>
       </c>
     </row>
   </sheetData>
